--- a/figures/benefit/table 1.xlsx
+++ b/figures/benefit/table 1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoudsmit/Dropbox/TRX/Lever/PhD/Schrijven/index/figures/benefit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoudsmit/Dropbox/TRX/Lever/PhD/Schrijven/Thesis in R/figures/benefit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47DB518-1E2A-114B-AE29-0EA2DB006DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31522D-0414-8C43-80A8-3FB33669D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{AD0CFE72-83AB-1544-8847-9BCA55447FA2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AD0CFE72-83AB-1544-8847-9BCA55447FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
   <si>
     <t>No HCC</t>
   </si>
@@ -321,24 +323,6 @@
     <t>61 (262)</t>
   </si>
   <si>
-    <t>74.2</t>
-  </si>
-  <si>
-    <t>65.5</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>24.6</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
     <t>Total tumor diameter (mean (SD))</t>
   </si>
   <si>
@@ -361,6 +345,27 @@
   </si>
   <si>
     <t>Characteristics</t>
+  </si>
+  <si>
+    <t>TTD (mean (SD))</t>
+  </si>
+  <si>
+    <t>DRI (median [IQR])</t>
+  </si>
+  <si>
+    <t>Dialysis  (%)</t>
+  </si>
+  <si>
+    <t>3505 (14.3)</t>
+  </si>
+  <si>
+    <t>Life-support (%)</t>
+  </si>
+  <si>
+    <t>119 (1.7)</t>
+  </si>
+  <si>
+    <t>59 (1.1)</t>
   </si>
 </sst>
 </file>
@@ -427,17 +432,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -446,6 +447,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -765,13 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7988033-D0FF-C144-8656-CA2807649881}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -780,24 +793,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
@@ -809,27 +822,27 @@
       <c r="D2" s="1">
         <v>5448</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -841,12 +854,12 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -858,10 +871,10 @@
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -873,10 +886,10 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -888,10 +901,10 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -903,10 +916,10 @@
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -918,12 +931,12 @@
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -935,10 +948,10 @@
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -950,10 +963,10 @@
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -965,10 +978,10 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -980,10 +993,10 @@
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -995,10 +1008,10 @@
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1010,10 +1023,10 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1025,10 +1038,10 @@
       <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1040,12 +1053,563 @@
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9">
+        <v>74.2</v>
+      </c>
+      <c r="D29" s="9">
+        <v>65.5</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>24.6</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DA6075-53E9-AC4B-8B4E-F238DCF326F7}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>24503</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6922</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5448</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1057,12 +1621,12 @@
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1074,12 +1638,12 @@
       <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1091,12 +1655,12 @@
       <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1108,10 +1672,10 @@
       <c r="D21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1123,10 +1687,10 @@
       <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1138,10 +1702,10 @@
       <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1153,10 +1717,10 @@
       <c r="D24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1168,10 +1732,10 @@
       <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1183,10 +1747,10 @@
       <c r="D26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1198,12 +1762,12 @@
       <c r="D27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1215,95 +1779,95 @@
       <c r="D28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="9">
+        <v>74.2</v>
+      </c>
+      <c r="D29" s="9">
+        <v>65.5</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>24.6</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E32" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/figures/benefit/table 1.xlsx
+++ b/figures/benefit/table 1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoudsmit/Dropbox/TRX/Lever/PhD/Schrijven/Thesis in R/figures/benefit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoudsmit/Dropbox/TRX/Lever/PhD/Schrijven/index/figures/benefit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31522D-0414-8C43-80A8-3FB33669D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47DB518-1E2A-114B-AE29-0EA2DB006DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AD0CFE72-83AB-1544-8847-9BCA55447FA2}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{AD0CFE72-83AB-1544-8847-9BCA55447FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t>No HCC</t>
   </si>
@@ -323,6 +321,24 @@
     <t>61 (262)</t>
   </si>
   <si>
+    <t>74.2</t>
+  </si>
+  <si>
+    <t>65.5</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
     <t>Total tumor diameter (mean (SD))</t>
   </si>
   <si>
@@ -345,27 +361,6 @@
   </si>
   <si>
     <t>Characteristics</t>
-  </si>
-  <si>
-    <t>TTD (mean (SD))</t>
-  </si>
-  <si>
-    <t>DRI (median [IQR])</t>
-  </si>
-  <si>
-    <t>Dialysis  (%)</t>
-  </si>
-  <si>
-    <t>3505 (14.3)</t>
-  </si>
-  <si>
-    <t>Life-support (%)</t>
-  </si>
-  <si>
-    <t>119 (1.7)</t>
-  </si>
-  <si>
-    <t>59 (1.1)</t>
   </si>
 </sst>
 </file>
@@ -432,13 +427,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -447,18 +446,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -778,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7988033-D0FF-C144-8656-CA2807649881}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -793,24 +780,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
@@ -822,27 +809,27 @@
       <c r="D2" s="1">
         <v>5448</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -854,12 +841,12 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -871,10 +858,10 @@
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -886,10 +873,10 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -901,10 +888,10 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -916,10 +903,10 @@
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -931,12 +918,12 @@
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -948,10 +935,10 @@
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -963,10 +950,10 @@
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -978,10 +965,10 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -993,10 +980,10 @@
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1008,10 +995,10 @@
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1023,10 +1010,10 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1038,10 +1025,10 @@
       <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1053,30 +1040,29 @@
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>105</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1088,12 +1074,12 @@
       <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1105,12 +1091,12 @@
       <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1122,10 +1108,10 @@
       <c r="D21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1137,10 +1123,10 @@
       <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1152,10 +1138,10 @@
       <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1167,10 +1153,10 @@
       <c r="D24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1182,10 +1168,10 @@
       <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1197,11 +1183,11 @@
       <c r="D26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>107</v>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>89</v>
@@ -1212,12 +1198,12 @@
       <c r="D27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1229,645 +1215,95 @@
       <c r="D28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9">
-        <v>74.2</v>
-      </c>
-      <c r="D29" s="9">
-        <v>65.5</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="9">
-        <v>19.3</v>
-      </c>
-      <c r="D30" s="9">
-        <v>24.6</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="D31" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="B33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A34:E34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DA6075-53E9-AC4B-8B4E-F238DCF326F7}">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>24503</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6922</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5448</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="9">
-        <v>74.2</v>
-      </c>
-      <c r="D29" s="9">
-        <v>65.5</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="9">
-        <v>19.3</v>
-      </c>
-      <c r="D30" s="9">
-        <v>24.6</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="D31" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
